--- a/data/output/FV2504_FV2410/UTILMD/55195.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55195.xlsx
@@ -14,69 +14,69 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="400">
-  <si>
-    <t>Segmentname_old</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_old</t>
-  </si>
-  <si>
-    <t>Segment_old</t>
-  </si>
-  <si>
-    <t>Datenelement_old</t>
-  </si>
-  <si>
-    <t>Segment ID_old</t>
-  </si>
-  <si>
-    <t>Code_old</t>
-  </si>
-  <si>
-    <t>Qualifier_old</t>
-  </si>
-  <si>
-    <t>Beschreibung_old</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_old</t>
-  </si>
-  <si>
-    <t>Bedingung_old</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4487" uniqueCount="400">
+  <si>
+    <t>Segmentname_FV2410</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2410</t>
+  </si>
+  <si>
+    <t>Segment_FV2410</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2410</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2410</t>
+  </si>
+  <si>
+    <t>Code_FV2410</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2410</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2410</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2410</t>
   </si>
   <si>
     <t>diff</t>
   </si>
   <si>
-    <t>Segmentname_new</t>
-  </si>
-  <si>
-    <t>Segmentgruppe_new</t>
-  </si>
-  <si>
-    <t>Segment_new</t>
-  </si>
-  <si>
-    <t>Datenelement_new</t>
-  </si>
-  <si>
-    <t>Segment ID_new</t>
-  </si>
-  <si>
-    <t>Code_new</t>
-  </si>
-  <si>
-    <t>Qualifier_new</t>
-  </si>
-  <si>
-    <t>Beschreibung_new</t>
-  </si>
-  <si>
-    <t>Bedingungsausdruck_new</t>
-  </si>
-  <si>
-    <t>Bedingung_new</t>
+    <t>Segmentname_FV2504</t>
+  </si>
+  <si>
+    <t>Segmentgruppe_FV2504</t>
+  </si>
+  <si>
+    <t>Segment_FV2504</t>
+  </si>
+  <si>
+    <t>Datenelement_FV2504</t>
+  </si>
+  <si>
+    <t>Segment ID_FV2504</t>
+  </si>
+  <si>
+    <t>Code_FV2504</t>
+  </si>
+  <si>
+    <t>Qualifier_FV2504</t>
+  </si>
+  <si>
+    <t>Beschreibung_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingungsausdruck_FV2504</t>
+  </si>
+  <si>
+    <t>Bedingung_FV2504</t>
   </si>
   <si>
     <t>Nachrichten-Kopfsegment</t>
@@ -1331,6 +1331,36 @@
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:U200" totalsRowShown="0">
+  <autoFilter ref="A1:U200"/>
+  <tableColumns count="21">
+    <tableColumn id="1" name="Segmentname_FV2410"/>
+    <tableColumn id="2" name="Segmentgruppe_FV2410"/>
+    <tableColumn id="3" name="Segment_FV2410"/>
+    <tableColumn id="4" name="Datenelement_FV2410"/>
+    <tableColumn id="5" name="Segment ID_FV2410"/>
+    <tableColumn id="6" name="Code_FV2410"/>
+    <tableColumn id="7" name="Qualifier_FV2410"/>
+    <tableColumn id="8" name="Beschreibung_FV2410"/>
+    <tableColumn id="9" name="Bedingungsausdruck_FV2410"/>
+    <tableColumn id="10" name="Bedingung_FV2410"/>
+    <tableColumn id="11" name="diff"/>
+    <tableColumn id="12" name="Segmentname_FV2504"/>
+    <tableColumn id="13" name="Segmentgruppe_FV2504"/>
+    <tableColumn id="14" name="Segment_FV2504"/>
+    <tableColumn id="15" name="Datenelement_FV2504"/>
+    <tableColumn id="16" name="Segment ID_FV2504"/>
+    <tableColumn id="17" name="Code_FV2504"/>
+    <tableColumn id="18" name="Qualifier_FV2504"/>
+    <tableColumn id="19" name="Beschreibung_FV2504"/>
+    <tableColumn id="20" name="Bedingungsausdruck_FV2504"/>
+    <tableColumn id="21" name="Bedingung_FV2504"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1620,7 +1650,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11291,5 +11324,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/data/output/FV2504_FV2410/UTILMD/55195.xlsx
+++ b/data/output/FV2504_FV2410/UTILMD/55195.xlsx
@@ -2361,7 +2361,7 @@
       </c>
       <c r="K2" s="2"/>
       <c r="L2" s="4"/>
-      <c r="M2" s="2" t="s">
+      <c r="M2" s="3" t="s">
         <v>22</v>
       </c>
       <c r="N2" s="2"/>
@@ -2941,7 +2941,7 @@
       </c>
       <c r="K13" s="2"/>
       <c r="L13" s="4"/>
-      <c r="M13" s="2" t="s">
+      <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="N13" s="2"/>
@@ -3087,7 +3087,7 @@
       </c>
       <c r="K16" s="2"/>
       <c r="L16" s="4"/>
-      <c r="M16" s="2" t="s">
+      <c r="M16" s="3" t="s">
         <v>24</v>
       </c>
       <c r="N16" s="2"/>
@@ -3291,7 +3291,7 @@
       </c>
       <c r="K20" s="2"/>
       <c r="L20" s="4"/>
-      <c r="M20" s="2" t="s">
+      <c r="M20" s="3" t="s">
         <v>25</v>
       </c>
       <c r="N20" s="2"/>
@@ -3489,7 +3489,7 @@
       </c>
       <c r="K24" s="2"/>
       <c r="L24" s="4"/>
-      <c r="M24" s="2" t="s">
+      <c r="M24" s="3" t="s">
         <v>26</v>
       </c>
       <c r="N24" s="2" t="s">
@@ -3689,7 +3689,7 @@
       </c>
       <c r="K28" s="2"/>
       <c r="L28" s="4"/>
-      <c r="M28" s="2" t="s">
+      <c r="M28" s="3" t="s">
         <v>27</v>
       </c>
       <c r="N28" s="2" t="s">
@@ -3997,7 +3997,7 @@
       </c>
       <c r="K34" s="2"/>
       <c r="L34" s="4"/>
-      <c r="M34" s="2" t="s">
+      <c r="M34" s="3" t="s">
         <v>28</v>
       </c>
       <c r="N34" s="2" t="s">
@@ -4197,7 +4197,7 @@
       </c>
       <c r="K38" s="2"/>
       <c r="L38" s="4"/>
-      <c r="M38" s="2" t="s">
+      <c r="M38" s="3" t="s">
         <v>29</v>
       </c>
       <c r="N38" s="2" t="s">
@@ -4571,7 +4571,7 @@
       </c>
       <c r="K45" s="2"/>
       <c r="L45" s="4"/>
-      <c r="M45" s="2" t="s">
+      <c r="M45" s="3" t="s">
         <v>30</v>
       </c>
       <c r="N45" s="2" t="s">
@@ -4883,7 +4883,7 @@
       </c>
       <c r="K51" s="2"/>
       <c r="L51" s="4"/>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="3" t="s">
         <v>31</v>
       </c>
       <c r="N51" s="2" t="s">
@@ -5079,7 +5079,7 @@
       </c>
       <c r="K55" s="2"/>
       <c r="L55" s="4"/>
-      <c r="M55" s="2" t="s">
+      <c r="M55" s="3" t="s">
         <v>32</v>
       </c>
       <c r="N55" s="2" t="s">
@@ -5279,7 +5279,7 @@
       </c>
       <c r="K59" s="2"/>
       <c r="L59" s="4"/>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="3" t="s">
         <v>33</v>
       </c>
       <c r="N59" s="2" t="s">
@@ -5479,7 +5479,7 @@
       </c>
       <c r="K63" s="2"/>
       <c r="L63" s="4"/>
-      <c r="M63" s="2" t="s">
+      <c r="M63" s="3" t="s">
         <v>34</v>
       </c>
       <c r="N63" s="2" t="s">
@@ -5625,7 +5625,7 @@
       </c>
       <c r="K66" s="2"/>
       <c r="L66" s="4"/>
-      <c r="M66" s="2" t="s">
+      <c r="M66" s="3" t="s">
         <v>35</v>
       </c>
       <c r="N66" s="2" t="s">
@@ -5781,7 +5781,7 @@
         <v>348</v>
       </c>
       <c r="L69" s="4"/>
-      <c r="M69" s="2" t="s">
+      <c r="M69" s="3" t="s">
         <v>36</v>
       </c>
       <c r="N69" s="2" t="s">
@@ -5959,54 +5959,54 @@
       <c r="V72" s="5"/>
     </row>
     <row r="73" spans="1:22">
-      <c r="A73" s="5" t="s">
+      <c r="A73" s="2" t="s">
         <v>467</v>
       </c>
-      <c r="B73" s="5" t="s">
+      <c r="B73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C73" s="5" t="s">
+      <c r="C73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D73" s="5" t="s">
+      <c r="D73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E73" s="5"/>
+      <c r="E73" s="2"/>
       <c r="F73" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="G73" s="5"/>
-      <c r="H73" s="5"/>
-      <c r="I73" s="5"/>
-      <c r="J73" s="5" t="s">
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="K73" s="5" t="s">
+      <c r="K73" s="2" t="s">
         <v>349</v>
       </c>
       <c r="L73" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M73" s="5" t="s">
+      <c r="M73" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="N73" s="5" t="s">
+      <c r="N73" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O73" s="5" t="s">
+      <c r="O73" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P73" s="5"/>
+      <c r="P73" s="2"/>
       <c r="Q73" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="R73" s="5"/>
-      <c r="S73" s="5"/>
-      <c r="T73" s="5"/>
-      <c r="U73" s="5" t="s">
+      <c r="R73" s="2"/>
+      <c r="S73" s="2"/>
+      <c r="T73" s="2"/>
+      <c r="U73" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="V73" s="5" t="s">
+      <c r="V73" s="2" t="s">
         <v>349</v>
       </c>
     </row>
@@ -6191,54 +6191,54 @@
       <c r="V76" s="5"/>
     </row>
     <row r="77" spans="1:22">
-      <c r="A77" s="5" t="s">
+      <c r="A77" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B77" s="5" t="s">
+      <c r="B77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="D77" s="5" t="s">
+      <c r="D77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="E77" s="5"/>
+      <c r="E77" s="2"/>
       <c r="F77" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="G77" s="5"/>
-      <c r="H77" s="5"/>
-      <c r="I77" s="5"/>
-      <c r="J77" s="5" t="s">
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="K77" s="5" t="s">
+      <c r="K77" s="2" t="s">
         <v>351</v>
       </c>
       <c r="L77" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M77" s="5" t="s">
+      <c r="M77" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="N77" s="5" t="s">
+      <c r="N77" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="O77" s="5" t="s">
+      <c r="O77" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="P77" s="5"/>
+      <c r="P77" s="2"/>
       <c r="Q77" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="R77" s="5"/>
-      <c r="S77" s="5"/>
-      <c r="T77" s="5"/>
-      <c r="U77" s="5" t="s">
+      <c r="R77" s="2"/>
+      <c r="S77" s="2"/>
+      <c r="T77" s="2"/>
+      <c r="U77" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="V77" s="5" t="s">
+      <c r="V77" s="2" t="s">
         <v>351</v>
       </c>
     </row>
@@ -6445,7 +6445,7 @@
         <v>352</v>
       </c>
       <c r="L81" s="4"/>
-      <c r="M81" s="2" t="s">
+      <c r="M81" s="3" t="s">
         <v>39</v>
       </c>
       <c r="N81" s="2" t="s">
@@ -6655,7 +6655,7 @@
         <v>354</v>
       </c>
       <c r="L85" s="4"/>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="3" t="s">
         <v>40</v>
       </c>
       <c r="N85" s="2" t="s">
@@ -6865,7 +6865,7 @@
         <v>355</v>
       </c>
       <c r="L89" s="4"/>
-      <c r="M89" s="2" t="s">
+      <c r="M89" s="3" t="s">
         <v>41</v>
       </c>
       <c r="N89" s="2" t="s">
@@ -6993,52 +6993,52 @@
       <c r="V91" s="5"/>
     </row>
     <row r="92" spans="1:22">
-      <c r="A92" s="5" t="s">
+      <c r="A92" s="2" t="s">
         <v>486</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E92" s="5"/>
+      <c r="E92" s="2"/>
       <c r="F92" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="G92" s="5"/>
-      <c r="H92" s="5"/>
-      <c r="I92" s="5"/>
-      <c r="J92" s="5" t="s">
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+      <c r="I92" s="2"/>
+      <c r="J92" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K92" s="5"/>
+      <c r="K92" s="2"/>
       <c r="L92" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M92" s="5" t="s">
+      <c r="M92" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N92" s="5" t="s">
+      <c r="N92" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O92" s="5" t="s">
+      <c r="O92" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P92" s="5"/>
+      <c r="P92" s="2"/>
       <c r="Q92" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="R92" s="5"/>
-      <c r="S92" s="5"/>
-      <c r="T92" s="5"/>
-      <c r="U92" s="5" t="s">
+      <c r="R92" s="2"/>
+      <c r="S92" s="2"/>
+      <c r="T92" s="2"/>
+      <c r="U92" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V92" s="5"/>
+      <c r="V92" s="2"/>
     </row>
     <row r="93" spans="1:22">
       <c r="A93" s="5" t="s">
@@ -7183,7 +7183,7 @@
         <v>356</v>
       </c>
       <c r="L95" s="4"/>
-      <c r="M95" s="2" t="s">
+      <c r="M95" s="3" t="s">
         <v>43</v>
       </c>
       <c r="N95" s="2" t="s">
@@ -7451,7 +7451,7 @@
       </c>
       <c r="K100" s="2"/>
       <c r="L100" s="4"/>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="3" t="s">
         <v>44</v>
       </c>
       <c r="N100" s="2" t="s">
@@ -7717,7 +7717,7 @@
       </c>
       <c r="K105" s="2"/>
       <c r="L105" s="4"/>
-      <c r="M105" s="2" t="s">
+      <c r="M105" s="3" t="s">
         <v>45</v>
       </c>
       <c r="N105" s="2" t="s">
@@ -7977,7 +7977,7 @@
       </c>
       <c r="K110" s="2"/>
       <c r="L110" s="4"/>
-      <c r="M110" s="2" t="s">
+      <c r="M110" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N110" s="2" t="s">
@@ -8103,54 +8103,54 @@
       <c r="V112" s="5"/>
     </row>
     <row r="113" spans="1:22">
-      <c r="A113" s="5" t="s">
+      <c r="A113" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D113" s="5" t="s">
+      <c r="D113" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E113" s="5"/>
+      <c r="E113" s="2"/>
       <c r="F113" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5" t="s">
+      <c r="G113" s="2"/>
+      <c r="H113" s="2"/>
+      <c r="I113" s="2"/>
+      <c r="J113" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="K113" s="5" t="s">
+      <c r="K113" s="2" t="s">
         <v>359</v>
       </c>
       <c r="L113" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M113" s="5" t="s">
+      <c r="M113" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N113" s="5" t="s">
+      <c r="N113" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O113" s="5" t="s">
+      <c r="O113" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P113" s="5"/>
+      <c r="P113" s="2"/>
       <c r="Q113" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="R113" s="5"/>
-      <c r="S113" s="5"/>
-      <c r="T113" s="5"/>
-      <c r="U113" s="5" t="s">
+      <c r="R113" s="2"/>
+      <c r="S113" s="2"/>
+      <c r="T113" s="2"/>
+      <c r="U113" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="V113" s="5" t="s">
+      <c r="V113" s="2" t="s">
         <v>359</v>
       </c>
     </row>
@@ -8275,52 +8275,52 @@
       </c>
     </row>
     <row r="116" spans="1:22">
-      <c r="A116" s="5" t="s">
+      <c r="A116" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="B116" s="5" t="s">
+      <c r="B116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E116" s="5"/>
+      <c r="E116" s="2"/>
       <c r="F116" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5" t="s">
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K116" s="5"/>
+      <c r="K116" s="2"/>
       <c r="L116" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M116" s="5" t="s">
+      <c r="M116" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="N116" s="5" t="s">
+      <c r="N116" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O116" s="5" t="s">
+      <c r="O116" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P116" s="5"/>
+      <c r="P116" s="2"/>
       <c r="Q116" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="R116" s="5"/>
-      <c r="S116" s="5"/>
-      <c r="T116" s="5"/>
-      <c r="U116" s="5" t="s">
+      <c r="R116" s="2"/>
+      <c r="S116" s="2"/>
+      <c r="T116" s="2"/>
+      <c r="U116" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V116" s="5"/>
+      <c r="V116" s="2"/>
     </row>
     <row r="117" spans="1:22">
       <c r="A117" s="5" t="s">
@@ -8459,7 +8459,7 @@
       </c>
       <c r="K119" s="2"/>
       <c r="L119" s="4"/>
-      <c r="M119" s="2" t="s">
+      <c r="M119" s="3" t="s">
         <v>49</v>
       </c>
       <c r="N119" s="2" t="s">
@@ -8663,7 +8663,7 @@
         <v>361</v>
       </c>
       <c r="L123" s="4"/>
-      <c r="M123" s="2" t="s">
+      <c r="M123" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N123" s="2" t="s">
@@ -8867,7 +8867,7 @@
       </c>
       <c r="K127" s="2"/>
       <c r="L127" s="4"/>
-      <c r="M127" s="2" t="s">
+      <c r="M127" s="3" t="s">
         <v>51</v>
       </c>
       <c r="N127" s="2" t="s">
@@ -9071,7 +9071,7 @@
         <v>352</v>
       </c>
       <c r="L131" s="4"/>
-      <c r="M131" s="2" t="s">
+      <c r="M131" s="3" t="s">
         <v>52</v>
       </c>
       <c r="N131" s="2" t="s">
@@ -9383,7 +9383,7 @@
       </c>
       <c r="K137" s="2"/>
       <c r="L137" s="4"/>
-      <c r="M137" s="2" t="s">
+      <c r="M137" s="3" t="s">
         <v>53</v>
       </c>
       <c r="N137" s="2" t="s">
@@ -9589,7 +9589,7 @@
       </c>
       <c r="K141" s="2"/>
       <c r="L141" s="4"/>
-      <c r="M141" s="2" t="s">
+      <c r="M141" s="3" t="s">
         <v>54</v>
       </c>
       <c r="N141" s="2" t="s">
@@ -9769,26 +9769,26 @@
       <c r="V144" s="5"/>
     </row>
     <row r="145" spans="1:22">
-      <c r="A145" s="5" t="s">
+      <c r="A145" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="B145" s="5" t="s">
+      <c r="B145" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D145" s="5" t="s">
+      <c r="D145" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E145" s="5"/>
+      <c r="E145" s="2"/>
       <c r="F145" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="G145" s="5"/>
-      <c r="H145" s="5"/>
-      <c r="I145" s="5"/>
-      <c r="J145" s="5" t="s">
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
+      <c r="I145" s="2"/>
+      <c r="J145" s="2" t="s">
         <v>332</v>
       </c>
       <c r="K145" s="6" t="s">
@@ -9797,23 +9797,23 @@
       <c r="L145" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M145" s="5" t="s">
+      <c r="M145" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="N145" s="5" t="s">
+      <c r="N145" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O145" s="5" t="s">
+      <c r="O145" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P145" s="5"/>
+      <c r="P145" s="2"/>
       <c r="Q145" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="R145" s="5"/>
-      <c r="S145" s="5"/>
-      <c r="T145" s="5"/>
-      <c r="U145" s="5" t="s">
+      <c r="R145" s="2"/>
+      <c r="S145" s="2"/>
+      <c r="T145" s="2"/>
+      <c r="U145" s="2" t="s">
         <v>332</v>
       </c>
       <c r="V145" s="6" t="s">
@@ -9903,7 +9903,7 @@
         <v>363</v>
       </c>
       <c r="L147" s="4"/>
-      <c r="M147" s="2" t="s">
+      <c r="M147" s="3" t="s">
         <v>56</v>
       </c>
       <c r="N147" s="2" t="s">
@@ -10031,52 +10031,52 @@
       <c r="V149" s="5"/>
     </row>
     <row r="150" spans="1:22">
-      <c r="A150" s="5" t="s">
+      <c r="A150" s="2" t="s">
         <v>543</v>
       </c>
-      <c r="B150" s="5" t="s">
+      <c r="B150" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D150" s="5" t="s">
+      <c r="D150" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E150" s="5"/>
+      <c r="E150" s="2"/>
       <c r="F150" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="G150" s="5"/>
-      <c r="H150" s="5"/>
-      <c r="I150" s="5"/>
-      <c r="J150" s="5" t="s">
+      <c r="G150" s="2"/>
+      <c r="H150" s="2"/>
+      <c r="I150" s="2"/>
+      <c r="J150" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K150" s="5"/>
+      <c r="K150" s="2"/>
       <c r="L150" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M150" s="5" t="s">
+      <c r="M150" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N150" s="5" t="s">
+      <c r="N150" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O150" s="5" t="s">
+      <c r="O150" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P150" s="5"/>
+      <c r="P150" s="2"/>
       <c r="Q150" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="R150" s="5"/>
-      <c r="S150" s="5"/>
-      <c r="T150" s="5"/>
-      <c r="U150" s="5" t="s">
+      <c r="R150" s="2"/>
+      <c r="S150" s="2"/>
+      <c r="T150" s="2"/>
+      <c r="U150" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V150" s="5"/>
+      <c r="V150" s="2"/>
     </row>
     <row r="151" spans="1:22">
       <c r="A151" s="5" t="s">
@@ -10199,52 +10199,52 @@
       </c>
     </row>
     <row r="153" spans="1:22">
-      <c r="A153" s="5" t="s">
+      <c r="A153" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="B153" s="5" t="s">
+      <c r="B153" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D153" s="5" t="s">
+      <c r="D153" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E153" s="5"/>
+      <c r="E153" s="2"/>
       <c r="F153" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="G153" s="5"/>
-      <c r="H153" s="5"/>
-      <c r="I153" s="5"/>
-      <c r="J153" s="5" t="s">
+      <c r="G153" s="2"/>
+      <c r="H153" s="2"/>
+      <c r="I153" s="2"/>
+      <c r="J153" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K153" s="5"/>
+      <c r="K153" s="2"/>
       <c r="L153" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M153" s="5" t="s">
+      <c r="M153" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N153" s="5" t="s">
+      <c r="N153" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O153" s="5" t="s">
+      <c r="O153" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P153" s="5"/>
+      <c r="P153" s="2"/>
       <c r="Q153" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="R153" s="5"/>
-      <c r="S153" s="5"/>
-      <c r="T153" s="5"/>
-      <c r="U153" s="5" t="s">
+      <c r="R153" s="2"/>
+      <c r="S153" s="2"/>
+      <c r="T153" s="2"/>
+      <c r="U153" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V153" s="5"/>
+      <c r="V153" s="2"/>
     </row>
     <row r="154" spans="1:22">
       <c r="A154" s="5" t="s">
@@ -10449,7 +10449,7 @@
         <v>365</v>
       </c>
       <c r="L157" s="4"/>
-      <c r="M157" s="2" t="s">
+      <c r="M157" s="3" t="s">
         <v>58</v>
       </c>
       <c r="N157" s="2" t="s">
@@ -10577,52 +10577,52 @@
       <c r="V159" s="5"/>
     </row>
     <row r="160" spans="1:22">
-      <c r="A160" s="5" t="s">
+      <c r="A160" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B160" s="5" t="s">
+      <c r="B160" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C160" s="5" t="s">
+      <c r="C160" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D160" s="5" t="s">
+      <c r="D160" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E160" s="5"/>
+      <c r="E160" s="2"/>
       <c r="F160" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="G160" s="5"/>
-      <c r="H160" s="5"/>
-      <c r="I160" s="5"/>
-      <c r="J160" s="5" t="s">
+      <c r="G160" s="2"/>
+      <c r="H160" s="2"/>
+      <c r="I160" s="2"/>
+      <c r="J160" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K160" s="5"/>
+      <c r="K160" s="2"/>
       <c r="L160" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M160" s="5" t="s">
+      <c r="M160" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="N160" s="5" t="s">
+      <c r="N160" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O160" s="5" t="s">
+      <c r="O160" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P160" s="5"/>
+      <c r="P160" s="2"/>
       <c r="Q160" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="R160" s="5"/>
-      <c r="S160" s="5"/>
-      <c r="T160" s="5"/>
-      <c r="U160" s="5" t="s">
+      <c r="R160" s="2"/>
+      <c r="S160" s="2"/>
+      <c r="T160" s="2"/>
+      <c r="U160" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V160" s="5"/>
+      <c r="V160" s="2"/>
     </row>
     <row r="161" spans="1:22">
       <c r="A161" s="5" t="s">
@@ -10765,7 +10765,7 @@
       </c>
       <c r="K163" s="2"/>
       <c r="L163" s="4"/>
-      <c r="M163" s="2" t="s">
+      <c r="M163" s="3" t="s">
         <v>46</v>
       </c>
       <c r="N163" s="2" t="s">
@@ -10891,52 +10891,52 @@
       <c r="V165" s="5"/>
     </row>
     <row r="166" spans="1:22">
-      <c r="A166" s="5" t="s">
+      <c r="A166" s="2" t="s">
         <v>556</v>
       </c>
-      <c r="B166" s="5" t="s">
+      <c r="B166" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C166" s="5" t="s">
+      <c r="C166" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="D166" s="5" t="s">
+      <c r="D166" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="E166" s="5"/>
+      <c r="E166" s="2"/>
       <c r="F166" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="G166" s="5"/>
-      <c r="H166" s="5"/>
-      <c r="I166" s="5"/>
-      <c r="J166" s="5" t="s">
+      <c r="G166" s="2"/>
+      <c r="H166" s="2"/>
+      <c r="I166" s="2"/>
+      <c r="J166" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K166" s="5"/>
+      <c r="K166" s="2"/>
       <c r="L166" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M166" s="5" t="s">
+      <c r="M166" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="N166" s="5" t="s">
+      <c r="N166" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="O166" s="5" t="s">
+      <c r="O166" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="P166" s="5"/>
+      <c r="P166" s="2"/>
       <c r="Q166" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="R166" s="5"/>
-      <c r="S166" s="5"/>
-      <c r="T166" s="5"/>
-      <c r="U166" s="5" t="s">
+      <c r="R166" s="2"/>
+      <c r="S166" s="2"/>
+      <c r="T166" s="2"/>
+      <c r="U166" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V166" s="5"/>
+      <c r="V166" s="2"/>
     </row>
     <row r="167" spans="1:22">
       <c r="A167" s="5" t="s">
@@ -11077,7 +11077,7 @@
         <v>366</v>
       </c>
       <c r="L169" s="4"/>
-      <c r="M169" s="2" t="s">
+      <c r="M169" s="3" t="s">
         <v>50</v>
       </c>
       <c r="N169" s="2" t="s">
@@ -11283,7 +11283,7 @@
         <v>367</v>
       </c>
       <c r="L173" s="4"/>
-      <c r="M173" s="2" t="s">
+      <c r="M173" s="3" t="s">
         <v>60</v>
       </c>
       <c r="N173" s="2" t="s">
@@ -11411,52 +11411,52 @@
       <c r="V175" s="5"/>
     </row>
     <row r="176" spans="1:22">
-      <c r="A176" s="5" t="s">
+      <c r="A176" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="B176" s="5" t="s">
+      <c r="B176" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C176" s="5" t="s">
+      <c r="C176" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D176" s="5" t="s">
+      <c r="D176" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E176" s="5"/>
+      <c r="E176" s="2"/>
       <c r="F176" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="G176" s="5"/>
-      <c r="H176" s="5"/>
-      <c r="I176" s="5"/>
-      <c r="J176" s="5" t="s">
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K176" s="5"/>
+      <c r="K176" s="2"/>
       <c r="L176" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M176" s="5" t="s">
+      <c r="M176" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="N176" s="5" t="s">
+      <c r="N176" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O176" s="5" t="s">
+      <c r="O176" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P176" s="5"/>
+      <c r="P176" s="2"/>
       <c r="Q176" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="R176" s="5"/>
-      <c r="S176" s="5"/>
-      <c r="T176" s="5"/>
-      <c r="U176" s="5" t="s">
+      <c r="R176" s="2"/>
+      <c r="S176" s="2"/>
+      <c r="T176" s="2"/>
+      <c r="U176" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V176" s="5"/>
+      <c r="V176" s="2"/>
     </row>
     <row r="177" spans="1:22">
       <c r="A177" s="5" t="s">
@@ -11579,52 +11579,52 @@
       </c>
     </row>
     <row r="179" spans="1:22">
-      <c r="A179" s="5" t="s">
+      <c r="A179" s="2" t="s">
         <v>569</v>
       </c>
-      <c r="B179" s="5" t="s">
+      <c r="B179" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C179" s="5" t="s">
+      <c r="C179" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D179" s="5" t="s">
+      <c r="D179" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E179" s="5"/>
+      <c r="E179" s="2"/>
       <c r="F179" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="G179" s="5"/>
-      <c r="H179" s="5"/>
-      <c r="I179" s="5"/>
-      <c r="J179" s="5" t="s">
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K179" s="5"/>
+      <c r="K179" s="2"/>
       <c r="L179" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M179" s="5" t="s">
+      <c r="M179" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="N179" s="5" t="s">
+      <c r="N179" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O179" s="5" t="s">
+      <c r="O179" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="P179" s="5"/>
+      <c r="P179" s="2"/>
       <c r="Q179" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="R179" s="5"/>
-      <c r="S179" s="5"/>
-      <c r="T179" s="5"/>
-      <c r="U179" s="5" t="s">
+      <c r="R179" s="2"/>
+      <c r="S179" s="2"/>
+      <c r="T179" s="2"/>
+      <c r="U179" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V179" s="5"/>
+      <c r="V179" s="2"/>
     </row>
     <row r="180" spans="1:22">
       <c r="A180" s="5" t="s">
@@ -11829,7 +11829,7 @@
         <v>369</v>
       </c>
       <c r="L183" s="4"/>
-      <c r="M183" s="2" t="s">
+      <c r="M183" s="3" t="s">
         <v>63</v>
       </c>
       <c r="N183" s="2" t="s">
@@ -11957,52 +11957,52 @@
       <c r="V185" s="5"/>
     </row>
     <row r="186" spans="1:22">
-      <c r="A186" s="5" t="s">
+      <c r="A186" s="2" t="s">
         <v>576</v>
       </c>
-      <c r="B186" s="5" t="s">
+      <c r="B186" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C186" s="5" t="s">
+      <c r="C186" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D186" s="5" t="s">
+      <c r="D186" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E186" s="5"/>
+      <c r="E186" s="2"/>
       <c r="F186" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="G186" s="5"/>
-      <c r="H186" s="5"/>
-      <c r="I186" s="5"/>
-      <c r="J186" s="5" t="s">
+      <c r="G186" s="2"/>
+      <c r="H186" s="2"/>
+      <c r="I186" s="2"/>
+      <c r="J186" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K186" s="5"/>
+      <c r="K186" s="2"/>
       <c r="L186" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M186" s="5" t="s">
+      <c r="M186" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="N186" s="5" t="s">
+      <c r="N186" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O186" s="5" t="s">
+      <c r="O186" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P186" s="5"/>
+      <c r="P186" s="2"/>
       <c r="Q186" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="R186" s="5"/>
-      <c r="S186" s="5"/>
-      <c r="T186" s="5"/>
-      <c r="U186" s="5" t="s">
+      <c r="R186" s="2"/>
+      <c r="S186" s="2"/>
+      <c r="T186" s="2"/>
+      <c r="U186" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V186" s="5"/>
+      <c r="V186" s="2"/>
     </row>
     <row r="187" spans="1:22">
       <c r="A187" s="5" t="s">
@@ -12121,52 +12121,52 @@
       <c r="V188" s="5"/>
     </row>
     <row r="189" spans="1:22">
-      <c r="A189" s="5" t="s">
+      <c r="A189" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="B189" s="5" t="s">
+      <c r="B189" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C189" s="5" t="s">
+      <c r="C189" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D189" s="5" t="s">
+      <c r="D189" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E189" s="5"/>
+      <c r="E189" s="2"/>
       <c r="F189" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="G189" s="5"/>
-      <c r="H189" s="5"/>
-      <c r="I189" s="5"/>
-      <c r="J189" s="5" t="s">
+      <c r="G189" s="2"/>
+      <c r="H189" s="2"/>
+      <c r="I189" s="2"/>
+      <c r="J189" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K189" s="5"/>
+      <c r="K189" s="2"/>
       <c r="L189" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M189" s="5" t="s">
+      <c r="M189" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N189" s="5" t="s">
+      <c r="N189" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="O189" s="5" t="s">
+      <c r="O189" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="P189" s="5"/>
+      <c r="P189" s="2"/>
       <c r="Q189" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="R189" s="5"/>
-      <c r="S189" s="5"/>
-      <c r="T189" s="5"/>
-      <c r="U189" s="5" t="s">
+      <c r="R189" s="2"/>
+      <c r="S189" s="2"/>
+      <c r="T189" s="2"/>
+      <c r="U189" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V189" s="5"/>
+      <c r="V189" s="2"/>
     </row>
     <row r="190" spans="1:22">
       <c r="A190" s="5" t="s">
@@ -12309,7 +12309,7 @@
       </c>
       <c r="K192" s="2"/>
       <c r="L192" s="4"/>
-      <c r="M192" s="2" t="s">
+      <c r="M192" s="3" t="s">
         <v>65</v>
       </c>
       <c r="N192" s="2" t="s">
@@ -12599,48 +12599,48 @@
       <c r="V197" s="5"/>
     </row>
     <row r="198" spans="1:22">
-      <c r="A198" s="5" t="s">
+      <c r="A198" s="2" t="s">
         <v>588</v>
       </c>
-      <c r="B198" s="5" t="s">
+      <c r="B198" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C198" s="5"/>
-      <c r="D198" s="5" t="s">
+      <c r="C198" s="2"/>
+      <c r="D198" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="E198" s="5"/>
+      <c r="E198" s="2"/>
       <c r="F198" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="G198" s="5"/>
-      <c r="H198" s="5"/>
-      <c r="I198" s="5"/>
-      <c r="J198" s="5" t="s">
+      <c r="G198" s="2"/>
+      <c r="H198" s="2"/>
+      <c r="I198" s="2"/>
+      <c r="J198" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="K198" s="5"/>
+      <c r="K198" s="2"/>
       <c r="L198" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="M198" s="5" t="s">
+      <c r="M198" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="N198" s="5"/>
-      <c r="O198" s="5" t="s">
+      <c r="N198" s="2"/>
+      <c r="O198" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="P198" s="5"/>
+      <c r="P198" s="2"/>
       <c r="Q198" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="R198" s="5"/>
-      <c r="S198" s="5"/>
-      <c r="T198" s="5"/>
-      <c r="U198" s="5" t="s">
+      <c r="R198" s="2"/>
+      <c r="S198" s="2"/>
+      <c r="T198" s="2"/>
+      <c r="U198" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="V198" s="5"/>
+      <c r="V198" s="2"/>
     </row>
     <row r="199" spans="1:22">
       <c r="A199" s="5" t="s">
